--- a/Reactor/New/RMSE.xlsx
+++ b/Reactor/New/RMSE.xlsx
@@ -13,8 +13,17 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>units=mT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -51,9 +60,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -72,7 +84,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -358,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -369,255 +381,354 @@
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1">
-        <v>0.2656</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="2">
+        <v>0.48387096774193544</v>
       </c>
       <c r="B1">
-        <v>0.2586</v>
-      </c>
-      <c r="D1" s="1">
+        <v>2.656E-2</v>
+      </c>
+      <c r="C1">
+        <v>2.5860000000000001E-2</v>
+      </c>
+      <c r="E1" s="1">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>0.27660000000000001</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>0.532258064516129</v>
       </c>
       <c r="B2">
-        <v>0.2727</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>0.27460000000000001</v>
+        <v>2.7660000000000004E-2</v>
+      </c>
+      <c r="C2">
+        <v>2.7270000000000003E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>0.58064516129032251</v>
       </c>
       <c r="B3">
-        <v>0.26390000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>0.28320000000000001</v>
+        <v>2.7460000000000002E-2</v>
+      </c>
+      <c r="C3">
+        <v>2.6390000000000004E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>0.62903225806451613</v>
       </c>
       <c r="B4">
-        <v>0.2737</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>0.29239999999999999</v>
+        <v>2.8320000000000001E-2</v>
+      </c>
+      <c r="C4">
+        <v>2.7370000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>0.67741935483870963</v>
       </c>
       <c r="B5">
-        <v>0.28289999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>0.30270000000000002</v>
+        <v>2.9240000000000002E-2</v>
+      </c>
+      <c r="C5">
+        <v>2.8289999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>0.72580645161290325</v>
       </c>
       <c r="B6">
-        <v>0.29270000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>0.30370000000000003</v>
+        <v>3.0270000000000005E-2</v>
+      </c>
+      <c r="C6">
+        <v>2.9270000000000004E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>0.77419354838709664</v>
       </c>
       <c r="B7">
-        <v>0.29459999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>0.31069999999999998</v>
+        <v>3.0370000000000005E-2</v>
+      </c>
+      <c r="C7">
+        <v>2.946E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>0.82258064516129026</v>
       </c>
       <c r="B8">
-        <v>0.30020000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>0.3165</v>
+        <v>3.107E-2</v>
+      </c>
+      <c r="C8">
+        <v>3.0020000000000005E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>0.87096774193548376</v>
       </c>
       <c r="B9">
-        <v>0.30520000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>0.32100000000000001</v>
+        <v>3.1650000000000005E-2</v>
+      </c>
+      <c r="C9">
+        <v>3.0520000000000005E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>0.91935483870967738</v>
       </c>
       <c r="B10">
-        <v>0.31009999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>0.32800000000000001</v>
+        <v>3.2100000000000004E-2</v>
+      </c>
+      <c r="C10">
+        <v>3.1009999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>0.96774193548387089</v>
       </c>
       <c r="B11">
-        <v>0.31740000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>0.33550000000000002</v>
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="C11">
+        <v>3.1740000000000004E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>1.0161290322580645</v>
       </c>
       <c r="B12">
-        <v>0.32169999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>0.33739999999999998</v>
+        <v>3.3550000000000003E-2</v>
+      </c>
+      <c r="C12">
+        <v>3.2169999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>1.064516129032258</v>
       </c>
       <c r="B13">
-        <v>0.3261</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>0.34899999999999998</v>
+        <v>3.3739999999999999E-2</v>
+      </c>
+      <c r="C13">
+        <v>3.261E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>1.1129032258064515</v>
       </c>
       <c r="B14">
-        <v>0.33589999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>0.35370000000000001</v>
+        <v>3.49E-2</v>
+      </c>
+      <c r="C14">
+        <v>3.3590000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>1.161290322580645</v>
       </c>
       <c r="B15">
-        <v>0.34139999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>0.3599</v>
+        <v>3.5370000000000006E-2</v>
+      </c>
+      <c r="C15">
+        <v>3.4139999999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>1.2096774193548387</v>
       </c>
       <c r="B16">
-        <v>0.34639999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>0.36930000000000002</v>
+        <v>3.5990000000000001E-2</v>
+      </c>
+      <c r="C16">
+        <v>3.4639999999999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>1.2580645161290323</v>
       </c>
       <c r="B17">
-        <v>0.35580000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>0.37740000000000001</v>
+        <v>3.6930000000000004E-2</v>
+      </c>
+      <c r="C17">
+        <v>3.5580000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>1.3064516129032255</v>
       </c>
       <c r="B18">
-        <v>0.36299999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>0.37990000000000002</v>
+        <v>3.7740000000000003E-2</v>
+      </c>
+      <c r="C18">
+        <v>3.6299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>1.3548387096774193</v>
       </c>
       <c r="B19">
-        <v>0.3659</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>0.38890000000000002</v>
+        <v>3.7990000000000003E-2</v>
+      </c>
+      <c r="C19">
+        <v>3.6590000000000004E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>1.4032258064516128</v>
       </c>
       <c r="B20">
-        <v>0.37290000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>0.39329999999999998</v>
+        <v>3.8890000000000008E-2</v>
+      </c>
+      <c r="C20">
+        <v>3.7290000000000004E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>1.4516129032258065</v>
       </c>
       <c r="B21">
-        <v>0.37669999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>0.39489999999999997</v>
+        <v>3.9330000000000004E-2</v>
+      </c>
+      <c r="C21">
+        <v>3.7670000000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>1.4999999999999998</v>
       </c>
       <c r="B22">
-        <v>0.379</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>0.40039999999999998</v>
+        <v>3.9489999999999997E-2</v>
+      </c>
+      <c r="C22">
+        <v>3.7900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>1.5483870967741933</v>
       </c>
       <c r="B23">
-        <v>0.38540000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>0.40660000000000002</v>
+        <v>4.0039999999999999E-2</v>
+      </c>
+      <c r="C23">
+        <v>3.8540000000000005E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>1.596774193548387</v>
       </c>
       <c r="B24">
-        <v>0.3906</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <v>0.41010000000000002</v>
+        <v>4.0660000000000002E-2</v>
+      </c>
+      <c r="C24">
+        <v>3.9060000000000004E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>1.6451612903225805</v>
       </c>
       <c r="B25">
-        <v>0.39429999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>0.4173</v>
+        <v>4.1010000000000005E-2</v>
+      </c>
+      <c r="C25">
+        <v>3.943E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>1.6935483870967742</v>
       </c>
       <c r="B26">
-        <v>0.4007</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <v>0.4224</v>
+        <v>4.1730000000000003E-2</v>
+      </c>
+      <c r="C26">
+        <v>4.0070000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>1.7419354838709675</v>
       </c>
       <c r="B27">
-        <v>0.40560000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <v>0.42349999999999999</v>
+        <v>4.224E-2</v>
+      </c>
+      <c r="C27">
+        <v>4.0560000000000006E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>1.790322580645161</v>
       </c>
       <c r="B28">
-        <v>0.40770000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>0.43480000000000002</v>
+        <v>4.2349999999999999E-2</v>
+      </c>
+      <c r="C28">
+        <v>4.0770000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>1.8387096774193548</v>
       </c>
       <c r="B29">
-        <v>0.41820000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30">
-        <v>0.439</v>
+        <v>4.3480000000000005E-2</v>
+      </c>
+      <c r="C29">
+        <v>4.1820000000000003E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>1.8870967741935483</v>
       </c>
       <c r="B30">
-        <v>0.42159999999999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <v>0.44240000000000002</v>
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="C30">
+        <v>4.2160000000000003E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>1.9354838709677418</v>
       </c>
       <c r="B31">
-        <v>0.4264</v>
+        <v>4.4240000000000002E-2</v>
+      </c>
+      <c r="C31">
+        <v>4.2640000000000004E-2</v>
       </c>
     </row>
   </sheetData>
